--- a/reportes/reporte_05-03-2025.xlsx
+++ b/reportes/reporte_05-03-2025.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,16 @@
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1713640055</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>edwin2</t>
         </is>
       </c>
     </row>
@@ -457,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +539,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -579,7 +589,11 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>05/03/2025 17:52:01</t>
@@ -587,7 +601,162 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>CANCELADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1716764911</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salchipapas2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>05/03/2025 17:54:21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CANCELADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6546132165</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gaseosa de sabores mediana</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>05/03/2025 17:55:40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CANCELADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1716467791</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Salchipapas2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>05/03/2025 18:03:32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CANCELADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1716467791</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fuze Tea mediano</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>05/03/2025 18:03:42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CANCELADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6516516516</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coca cola pequeña</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>05/03/2025 18:09:07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CANCELADO</t>
         </is>
       </c>
     </row>
